--- a/testData/mail_test_data.xlsx
+++ b/testData/mail_test_data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
   <si>
     <t>测试点说明</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -176,6 +176,10 @@
   </si>
   <si>
     <t>正确配置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adm@123</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -669,7 +673,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -949,7 +953,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1032,8 +1036,8 @@
       <c r="D4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
+      <c r="E4" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
@@ -1087,8 +1091,8 @@
       <c r="D7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
+      <c r="E7" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
@@ -1126,6 +1130,8 @@
     <hyperlink ref="D8" r:id="rId3"/>
     <hyperlink ref="E8" r:id="rId4"/>
     <hyperlink ref="F8" r:id="rId5"/>
+    <hyperlink ref="E4" r:id="rId6"/>
+    <hyperlink ref="E7" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
